--- a/banhang24/Template/ImportExcel/FileImport_DanhMucHangHoa.xlsx
+++ b/banhang24/Template/ImportExcel/FileImport_DanhMucHangHoa.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Nhóm hàng hóa</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Thuộc tính 2</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>ĐV quy cách</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>Com bo chăm sóc da mặt</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Kho A</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +550,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,6 +572,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,10 +896,10 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,58 +927,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="44" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="15" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -979,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>11</v>
@@ -1003,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>16</v>
@@ -1021,26 +1038,26 @@
         <v>21</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="36">
         <v>1500000</v>
@@ -1060,27 +1077,30 @@
         <v>1</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" s="17">
         <v>40</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="36">
         <v>2500000</v>
@@ -1100,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" s="17">
         <v>22</v>
@@ -1108,16 +1128,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="2"/>
@@ -1137,16 +1157,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="2"/>
@@ -1167,16 +1187,16 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -1195,16 +1215,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="3"/>
@@ -1219,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="3"/>
@@ -1231,13 +1251,13 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="3"/>
@@ -1250,16 +1270,16 @@
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="29">
         <v>10</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="29">
         <v>24</v>
@@ -1269,16 +1289,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="2"/>
@@ -1291,17 +1311,17 @@
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="23"/>
       <c r="N11" s="19"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1309,10 +1329,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1537,7 +1557,7 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cảnh báo" error="Giá vốn: Bạn chỉ được phép nhập số vào bảng tính excel" sqref="WVQ4:WVQ12 JE1 TA1 ACW1 AMS1 AWO1 BGK1 BQG1 CAC1 CJY1 CTU1 DDQ1 DNM1 DXI1 EHE1 ERA1 FAW1 FKS1 FUO1 GEK1 GOG1 GYC1 HHY1 HRU1 IBQ1 ILM1 IVI1 JFE1 JPA1 JYW1 KIS1 KSO1 LCK1 LMG1 LWC1 MFY1 MPU1 MZQ1 NJM1 NTI1 ODE1 ONA1 OWW1 PGS1 PQO1 QAK1 QKG1 QUC1 RDY1 RNU1 RXQ1 SHM1 SRI1 TBE1 TLA1 TUW1 UES1 UOO1 UYK1 VIG1 VSC1 WBY1 WLU1 WVQ1 WLU4:WLU12 WBY4:WBY12 VSC4:VSC12 VIG4:VIG12 UYK4:UYK12 UOO4:UOO12 UES4:UES12 TUW4:TUW12 TLA4:TLA12 TBE4:TBE12 SRI4:SRI12 SHM4:SHM12 RXQ4:RXQ12 RNU4:RNU12 RDY4:RDY12 QUC4:QUC12 QKG4:QKG12 QAK4:QAK12 PQO4:PQO12 PGS4:PGS12 OWW4:OWW12 ONA4:ONA12 ODE4:ODE12 NTI4:NTI12 NJM4:NJM12 MZQ4:MZQ12 MPU4:MPU12 MFY4:MFY12 LWC4:LWC12 LMG4:LMG12 LCK4:LCK12 KSO4:KSO12 KIS4:KIS12 JYW4:JYW12 JPA4:JPA12 JFE4:JFE12 IVI4:IVI12 ILM4:ILM12 IBQ4:IBQ12 HRU4:HRU12 HHY4:HHY12 GYC4:GYC12 GOG4:GOG12 GEK4:GEK12 FUO4:FUO12 FKS4:FKS12 FAW4:FAW12 ERA4:ERA12 EHE4:EHE12 DXI4:DXI12 DNM4:DNM12 DDQ4:DDQ12 CTU4:CTU12 CJY4:CJY12 CAC4:CAC12 BQG4:BQG12 BGK4:BGK12 AWO4:AWO12 AMS4:AMS12 ACW4:ACW12 TA4:TA12 JE4:JE12">
